--- a/src/data/TestDataSheet.xlsx
+++ b/src/data/TestDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semillero\eclipse-workspace\TestExcel\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C65D2357-B2C8-4EE5-9482-E58E7881F249}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F1C47CF0-104A-4AA4-BC78-3F4F5111F360}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
     <workbookView windowHeight="7875" windowWidth="15375" xWindow="390" xr2:uid="{53346690-D43A-40ED-98E2-EE0121ABA678}" yWindow="390"/>
   </bookViews>
@@ -30,36 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Attributes</t>
+    <t>luffy</t>
   </si>
   <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Written Status</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>https://google.com/</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>search1</t>
-  </si>
-  <si>
-    <t>Avisha Misra</t>
-  </si>
-  <si>
-    <t>Miviul</t>
-  </si>
-  <si>
-    <t>Writing Done</t>
+    <t>camara</t>
   </si>
 </sst>
 </file>
@@ -67,18 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,16 +69,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hipervínculo" xfId="1"/>
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,67 +388,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0856D5-BEC8-4777-B007-404926BE2F83}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2" xr:uid="{CC76E77F-A82D-4AED-8C82-6EA083C2C7B5}"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>